--- a/data/technology_patents/files/uspto_env_c.xlsx
+++ b/data/technology_patents/files/uspto_env_c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AF35DDA-1253-3F42-BAEE-AA2C591C4159}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E50F6-050C-2449-9975-A5A632C9BE42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="1460" windowWidth="27640" windowHeight="16940" xr2:uid="{233D819C-433A-8049-98BD-CD9EDDD7B76A}"/>
+    <workbookView xWindow="8200" yWindow="1460" windowWidth="27640" windowHeight="16940" xr2:uid="{233D819C-433A-8049-98BD-CD9EDDD7B76A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FB18B-2458-AB47-BFB2-0330C44D9B38}">
   <dimension ref="A1:C1883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A927" workbookViewId="0">
-      <selection activeCell="G381" sqref="G381"/>
+    <sheetView tabSelected="1" topLeftCell="A873" workbookViewId="0">
+      <selection activeCell="E890" sqref="E890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/technology_patents/files/uspto_env_c.xlsx
+++ b/data/technology_patents/files/uspto_env_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29F5166-E832-204D-9359-73710858BFBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8604E10-D263-8D4C-BF32-C7D71BDC4ECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{233D819C-433A-8049-98BD-CD9EDDD7B76A}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <dimension ref="A1:C1883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,9 +727,6 @@
       <c r="B2">
         <v>1999</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -738,9 +735,6 @@
       <c r="B3">
         <v>2000</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -749,9 +743,6 @@
       <c r="B4">
         <v>2001</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -771,9 +762,6 @@
       <c r="B6">
         <v>2003</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -782,9 +770,6 @@
       <c r="B7">
         <v>2004</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -804,9 +789,6 @@
       <c r="B9">
         <v>2006</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -815,9 +797,6 @@
       <c r="B10">
         <v>2007</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -848,9 +827,6 @@
       <c r="B13">
         <v>2010</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -903,9 +879,6 @@
       <c r="B18">
         <v>2015</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -914,9 +887,6 @@
       <c r="B19">
         <v>2016</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -925,9 +895,6 @@
       <c r="B20">
         <v>1999</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -936,9 +903,6 @@
       <c r="B21">
         <v>2000</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -947,9 +911,6 @@
       <c r="B22">
         <v>2001</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -958,9 +919,6 @@
       <c r="B23">
         <v>2002</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -969,9 +927,6 @@
       <c r="B24">
         <v>2003</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -980,9 +935,6 @@
       <c r="B25">
         <v>2004</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -991,9 +943,6 @@
       <c r="B26">
         <v>2005</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1002,9 +951,6 @@
       <c r="B27">
         <v>2006</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1013,9 +959,6 @@
       <c r="B28">
         <v>2007</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1024,9 +967,6 @@
       <c r="B29">
         <v>2008</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1035,9 +975,6 @@
       <c r="B30">
         <v>2009</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1046,9 +983,6 @@
       <c r="B31">
         <v>2010</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1068,9 +1002,6 @@
       <c r="B33">
         <v>2012</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1079,9 +1010,6 @@
       <c r="B34">
         <v>2013</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1090,9 +1018,6 @@
       <c r="B35">
         <v>2014</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1112,9 +1037,6 @@
       <c r="B37">
         <v>2016</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1123,9 +1045,6 @@
       <c r="B38">
         <v>2017</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1332,9 +1251,6 @@
       <c r="B57">
         <v>1999</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -1343,9 +1259,6 @@
       <c r="B58">
         <v>2000</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -1354,9 +1267,6 @@
       <c r="B59">
         <v>2001</v>
       </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -1365,9 +1275,6 @@
       <c r="B60">
         <v>2002</v>
       </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -1376,9 +1283,6 @@
       <c r="B61">
         <v>2003</v>
       </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -1398,9 +1302,6 @@
       <c r="B63">
         <v>2005</v>
       </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -1409,9 +1310,6 @@
       <c r="B64">
         <v>2006</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -1420,9 +1318,6 @@
       <c r="B65">
         <v>2007</v>
       </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -1431,9 +1326,6 @@
       <c r="B66">
         <v>2008</v>
       </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -1464,9 +1356,6 @@
       <c r="B69">
         <v>2011</v>
       </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -1959,9 +1848,6 @@
       <c r="B114">
         <v>2000</v>
       </c>
-      <c r="C114" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -1992,9 +1878,6 @@
       <c r="B117">
         <v>2003</v>
       </c>
-      <c r="C117" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -2003,9 +1886,6 @@
       <c r="B118">
         <v>2004</v>
       </c>
-      <c r="C118" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -2025,9 +1905,6 @@
       <c r="B120">
         <v>2006</v>
       </c>
-      <c r="C120" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -2091,9 +1968,6 @@
       <c r="B126">
         <v>2012</v>
       </c>
-      <c r="C126" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -2113,9 +1987,6 @@
       <c r="B128">
         <v>2014</v>
       </c>
-      <c r="C128" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -2135,9 +2006,6 @@
       <c r="B130">
         <v>2016</v>
       </c>
-      <c r="C130" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -2146,9 +2014,6 @@
       <c r="B131">
         <v>2017</v>
       </c>
-      <c r="C131" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -2366,9 +2231,6 @@
       <c r="B151">
         <v>1999</v>
       </c>
-      <c r="C151" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -2377,9 +2239,6 @@
       <c r="B152">
         <v>2000</v>
       </c>
-      <c r="C152" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -2388,9 +2247,6 @@
       <c r="B153">
         <v>2001</v>
       </c>
-      <c r="C153" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -2399,9 +2255,6 @@
       <c r="B154">
         <v>2002</v>
       </c>
-      <c r="C154" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -2421,9 +2274,6 @@
       <c r="B156">
         <v>2004</v>
       </c>
-      <c r="C156" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -2432,9 +2282,6 @@
       <c r="B157">
         <v>2005</v>
       </c>
-      <c r="C157" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -2454,9 +2301,6 @@
       <c r="B159">
         <v>2007</v>
       </c>
-      <c r="C159" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -2487,9 +2331,6 @@
       <c r="B162">
         <v>2010</v>
       </c>
-      <c r="C162" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -2498,9 +2339,6 @@
       <c r="B163">
         <v>2011</v>
       </c>
-      <c r="C163" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -2509,9 +2347,6 @@
       <c r="B164">
         <v>2012</v>
       </c>
-      <c r="C164" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -2520,9 +2355,6 @@
       <c r="B165">
         <v>2013</v>
       </c>
-      <c r="C165" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -2531,9 +2363,6 @@
       <c r="B166">
         <v>2014</v>
       </c>
-      <c r="C166" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
@@ -2542,9 +2371,6 @@
       <c r="B167">
         <v>2015</v>
       </c>
-      <c r="C167" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -2553,9 +2379,6 @@
       <c r="B168">
         <v>2016</v>
       </c>
-      <c r="C168" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
@@ -2564,9 +2387,6 @@
       <c r="B169">
         <v>2017</v>
       </c>
-      <c r="C169" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -2575,9 +2395,6 @@
       <c r="B170">
         <v>1999</v>
       </c>
-      <c r="C170" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -2586,9 +2403,6 @@
       <c r="B171">
         <v>2000</v>
       </c>
-      <c r="C171" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -2597,9 +2411,6 @@
       <c r="B172">
         <v>2001</v>
       </c>
-      <c r="C172" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -2608,9 +2419,6 @@
       <c r="B173">
         <v>2002</v>
       </c>
-      <c r="C173" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
@@ -2619,9 +2427,6 @@
       <c r="B174">
         <v>2003</v>
       </c>
-      <c r="C174" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -2630,9 +2435,6 @@
       <c r="B175">
         <v>2004</v>
       </c>
-      <c r="C175" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
@@ -2641,9 +2443,6 @@
       <c r="B176">
         <v>2005</v>
       </c>
-      <c r="C176" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
@@ -2652,9 +2451,6 @@
       <c r="B177">
         <v>2006</v>
       </c>
-      <c r="C177" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -2663,9 +2459,6 @@
       <c r="B178">
         <v>2007</v>
       </c>
-      <c r="C178" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -2674,9 +2467,6 @@
       <c r="B179">
         <v>2008</v>
       </c>
-      <c r="C179" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -2685,9 +2475,6 @@
       <c r="B180">
         <v>2009</v>
       </c>
-      <c r="C180" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -2696,9 +2483,6 @@
       <c r="B181">
         <v>2010</v>
       </c>
-      <c r="C181" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -2707,9 +2491,6 @@
       <c r="B182">
         <v>2011</v>
       </c>
-      <c r="C182" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -2718,9 +2499,6 @@
       <c r="B183">
         <v>2012</v>
       </c>
-      <c r="C183" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -2751,9 +2529,6 @@
       <c r="B186">
         <v>2015</v>
       </c>
-      <c r="C186" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -2773,9 +2548,6 @@
       <c r="B188">
         <v>2017</v>
       </c>
-      <c r="C188" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -2993,9 +2765,6 @@
       <c r="B208">
         <v>1999</v>
       </c>
-      <c r="C208" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
@@ -3411,9 +3180,6 @@
       <c r="B246">
         <v>1999</v>
       </c>
-      <c r="C246" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -3422,9 +3188,6 @@
       <c r="B247">
         <v>2000</v>
       </c>
-      <c r="C247" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
@@ -3433,9 +3196,6 @@
       <c r="B248">
         <v>2001</v>
       </c>
-      <c r="C248" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
@@ -3444,9 +3204,6 @@
       <c r="B249">
         <v>2002</v>
       </c>
-      <c r="C249" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -3455,9 +3212,6 @@
       <c r="B250">
         <v>2003</v>
       </c>
-      <c r="C250" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
@@ -3466,9 +3220,6 @@
       <c r="B251">
         <v>2004</v>
       </c>
-      <c r="C251" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
@@ -3477,9 +3228,6 @@
       <c r="B252">
         <v>2005</v>
       </c>
-      <c r="C252" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -3488,9 +3236,6 @@
       <c r="B253">
         <v>2006</v>
       </c>
-      <c r="C253" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
@@ -3499,9 +3244,6 @@
       <c r="B254">
         <v>2007</v>
       </c>
-      <c r="C254" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -3510,9 +3252,6 @@
       <c r="B255">
         <v>2008</v>
       </c>
-      <c r="C255" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
@@ -3521,9 +3260,6 @@
       <c r="B256">
         <v>2009</v>
       </c>
-      <c r="C256" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -3532,9 +3268,6 @@
       <c r="B257">
         <v>2010</v>
       </c>
-      <c r="C257" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -3543,9 +3276,6 @@
       <c r="B258">
         <v>2011</v>
       </c>
-      <c r="C258" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -3554,9 +3284,6 @@
       <c r="B259">
         <v>2012</v>
       </c>
-      <c r="C259" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -3565,9 +3292,6 @@
       <c r="B260">
         <v>2013</v>
       </c>
-      <c r="C260" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -3587,9 +3311,6 @@
       <c r="B262">
         <v>2015</v>
       </c>
-      <c r="C262" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -3609,9 +3330,6 @@
       <c r="B264">
         <v>2017</v>
       </c>
-      <c r="C264" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -3620,9 +3338,6 @@
       <c r="B265">
         <v>1999</v>
       </c>
-      <c r="C265" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -4038,9 +3753,6 @@
       <c r="B303">
         <v>1999</v>
       </c>
-      <c r="C303" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
@@ -4060,9 +3772,6 @@
       <c r="B305">
         <v>2001</v>
       </c>
-      <c r="C305" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -4071,9 +3780,6 @@
       <c r="B306">
         <v>2002</v>
       </c>
-      <c r="C306" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
@@ -4247,9 +3953,6 @@
       <c r="B322">
         <v>1999</v>
       </c>
-      <c r="C322" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
@@ -4269,9 +3972,6 @@
       <c r="B324">
         <v>2001</v>
       </c>
-      <c r="C324" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -4302,9 +4002,6 @@
       <c r="B327">
         <v>2004</v>
       </c>
-      <c r="C327" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -4346,9 +4043,6 @@
       <c r="B331">
         <v>2008</v>
       </c>
-      <c r="C331" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -4357,9 +4051,6 @@
       <c r="B332">
         <v>2009</v>
       </c>
-      <c r="C332" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -4456,9 +4147,6 @@
       <c r="B341">
         <v>1999</v>
       </c>
-      <c r="C341" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -4467,9 +4155,6 @@
       <c r="B342">
         <v>2000</v>
       </c>
-      <c r="C342" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
@@ -4478,9 +4163,6 @@
       <c r="B343">
         <v>2001</v>
       </c>
-      <c r="C343" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
@@ -4489,9 +4171,6 @@
       <c r="B344">
         <v>2002</v>
       </c>
-      <c r="C344" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -4511,9 +4190,6 @@
       <c r="B346">
         <v>2004</v>
       </c>
-      <c r="C346" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -4533,9 +4209,6 @@
       <c r="B348">
         <v>2006</v>
       </c>
-      <c r="C348" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
@@ -4544,9 +4217,6 @@
       <c r="B349">
         <v>2007</v>
       </c>
-      <c r="C349" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
@@ -4555,9 +4225,6 @@
       <c r="B350">
         <v>2008</v>
       </c>
-      <c r="C350" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -4566,9 +4233,6 @@
       <c r="B351">
         <v>2009</v>
       </c>
-      <c r="C351" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -4577,9 +4241,6 @@
       <c r="B352">
         <v>2010</v>
       </c>
-      <c r="C352" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
@@ -4588,9 +4249,6 @@
       <c r="B353">
         <v>2011</v>
       </c>
-      <c r="C353" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -4599,9 +4257,6 @@
       <c r="B354">
         <v>2012</v>
       </c>
-      <c r="C354" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -4621,9 +4276,6 @@
       <c r="B356">
         <v>2014</v>
       </c>
-      <c r="C356" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -4632,9 +4284,6 @@
       <c r="B357">
         <v>2015</v>
       </c>
-      <c r="C357" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -4643,9 +4292,6 @@
       <c r="B358">
         <v>2016</v>
       </c>
-      <c r="C358" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -4654,9 +4300,6 @@
       <c r="B359">
         <v>2017</v>
       </c>
-      <c r="C359" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -4665,9 +4308,6 @@
       <c r="B360">
         <v>1999</v>
       </c>
-      <c r="C360" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -4808,9 +4448,6 @@
       <c r="B373">
         <v>2012</v>
       </c>
-      <c r="C373" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
@@ -4819,9 +4456,6 @@
       <c r="B374">
         <v>2013</v>
       </c>
-      <c r="C374" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
@@ -4841,9 +4475,6 @@
       <c r="B376">
         <v>2015</v>
       </c>
-      <c r="C376" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
@@ -4852,9 +4483,6 @@
       <c r="B377">
         <v>2016</v>
       </c>
-      <c r="C377" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
@@ -4863,9 +4491,6 @@
       <c r="B378">
         <v>2017</v>
       </c>
-      <c r="C378" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
@@ -4874,9 +4499,6 @@
       <c r="B379">
         <v>1999</v>
       </c>
-      <c r="C379" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
@@ -4885,9 +4507,6 @@
       <c r="B380">
         <v>2000</v>
       </c>
-      <c r="C380" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
@@ -4896,9 +4515,6 @@
       <c r="B381">
         <v>2001</v>
       </c>
-      <c r="C381" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
@@ -4907,9 +4523,6 @@
       <c r="B382">
         <v>2002</v>
       </c>
-      <c r="C382" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
@@ -4918,9 +4531,6 @@
       <c r="B383">
         <v>2003</v>
       </c>
-      <c r="C383" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
@@ -4929,9 +4539,6 @@
       <c r="B384">
         <v>2004</v>
       </c>
-      <c r="C384" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
@@ -4940,9 +4547,6 @@
       <c r="B385">
         <v>2005</v>
       </c>
-      <c r="C385" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
@@ -4951,9 +4555,6 @@
       <c r="B386">
         <v>2006</v>
       </c>
-      <c r="C386" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
@@ -4962,9 +4563,6 @@
       <c r="B387">
         <v>2007</v>
       </c>
-      <c r="C387" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
@@ -4973,9 +4571,6 @@
       <c r="B388">
         <v>2008</v>
       </c>
-      <c r="C388" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
@@ -4984,9 +4579,6 @@
       <c r="B389">
         <v>2009</v>
       </c>
-      <c r="C389" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
@@ -4995,9 +4587,6 @@
       <c r="B390">
         <v>2010</v>
       </c>
-      <c r="C390" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
@@ -5028,9 +4617,6 @@
       <c r="B393">
         <v>2013</v>
       </c>
-      <c r="C393" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
@@ -5039,9 +4625,6 @@
       <c r="B394">
         <v>2014</v>
       </c>
-      <c r="C394" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
@@ -5050,9 +4633,6 @@
       <c r="B395">
         <v>2015</v>
       </c>
-      <c r="C395" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
@@ -5061,9 +4641,6 @@
       <c r="B396">
         <v>2016</v>
       </c>
-      <c r="C396" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
@@ -5072,9 +4649,6 @@
       <c r="B397">
         <v>2017</v>
       </c>
-      <c r="C397" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
@@ -5512,9 +5086,6 @@
       <c r="B437">
         <v>2000</v>
       </c>
-      <c r="C437" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
@@ -5523,9 +5094,6 @@
       <c r="B438">
         <v>2001</v>
       </c>
-      <c r="C438" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
@@ -5534,9 +5102,6 @@
       <c r="B439">
         <v>2002</v>
       </c>
-      <c r="C439" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
@@ -5545,9 +5110,6 @@
       <c r="B440">
         <v>2003</v>
       </c>
-      <c r="C440" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
@@ -5699,9 +5261,6 @@
       <c r="B454">
         <v>1999</v>
       </c>
-      <c r="C454" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
@@ -5710,9 +5269,6 @@
       <c r="B455">
         <v>2000</v>
       </c>
-      <c r="C455" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
@@ -5721,9 +5277,6 @@
       <c r="B456">
         <v>2001</v>
       </c>
-      <c r="C456" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
@@ -5732,9 +5285,6 @@
       <c r="B457">
         <v>2002</v>
       </c>
-      <c r="C457" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
@@ -5743,9 +5293,6 @@
       <c r="B458">
         <v>2003</v>
       </c>
-      <c r="C458" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
@@ -5754,9 +5301,6 @@
       <c r="B459">
         <v>2004</v>
       </c>
-      <c r="C459" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
@@ -5765,9 +5309,6 @@
       <c r="B460">
         <v>2005</v>
       </c>
-      <c r="C460" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
@@ -5776,9 +5317,6 @@
       <c r="B461">
         <v>2006</v>
       </c>
-      <c r="C461" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -5787,9 +5325,6 @@
       <c r="B462">
         <v>2007</v>
       </c>
-      <c r="C462" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
@@ -5798,9 +5333,6 @@
       <c r="B463">
         <v>2008</v>
       </c>
-      <c r="C463" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -5809,9 +5341,6 @@
       <c r="B464">
         <v>2009</v>
       </c>
-      <c r="C464" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
@@ -5820,9 +5349,6 @@
       <c r="B465">
         <v>2010</v>
       </c>
-      <c r="C465" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
@@ -5831,9 +5357,6 @@
       <c r="B466">
         <v>2011</v>
       </c>
-      <c r="C466" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
@@ -5842,9 +5365,6 @@
       <c r="B467">
         <v>2012</v>
       </c>
-      <c r="C467" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
@@ -5853,9 +5373,6 @@
       <c r="B468">
         <v>2013</v>
       </c>
-      <c r="C468" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
@@ -5864,9 +5381,6 @@
       <c r="B469">
         <v>2014</v>
       </c>
-      <c r="C469" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
@@ -5875,9 +5389,6 @@
       <c r="B470">
         <v>2015</v>
       </c>
-      <c r="C470" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
@@ -5886,9 +5397,6 @@
       <c r="B471">
         <v>2016</v>
       </c>
-      <c r="C471" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
@@ -5897,9 +5405,6 @@
       <c r="B472">
         <v>1999</v>
       </c>
-      <c r="C472" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
@@ -5908,9 +5413,6 @@
       <c r="B473">
         <v>2000</v>
       </c>
-      <c r="C473" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
@@ -5919,9 +5421,6 @@
       <c r="B474">
         <v>2001</v>
       </c>
-      <c r="C474" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
@@ -5941,9 +5440,6 @@
       <c r="B476">
         <v>2003</v>
       </c>
-      <c r="C476" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
@@ -5952,9 +5448,6 @@
       <c r="B477">
         <v>2004</v>
       </c>
-      <c r="C477" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
@@ -5996,9 +5489,6 @@
       <c r="B481">
         <v>2008</v>
       </c>
-      <c r="C481" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -6007,9 +5497,6 @@
       <c r="B482">
         <v>2009</v>
       </c>
-      <c r="C482" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
@@ -6062,9 +5549,6 @@
       <c r="B487">
         <v>2014</v>
       </c>
-      <c r="C487" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
@@ -6084,9 +5568,6 @@
       <c r="B489">
         <v>2016</v>
       </c>
-      <c r="C489" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
@@ -6095,9 +5576,6 @@
       <c r="B490">
         <v>2017</v>
       </c>
-      <c r="C490" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
@@ -6117,9 +5595,6 @@
       <c r="B492">
         <v>2000</v>
       </c>
-      <c r="C492" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
@@ -6139,9 +5614,6 @@
       <c r="B494">
         <v>2002</v>
       </c>
-      <c r="C494" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
@@ -6150,9 +5622,6 @@
       <c r="B495">
         <v>2003</v>
       </c>
-      <c r="C495" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
@@ -6183,9 +5652,6 @@
       <c r="B498">
         <v>2006</v>
       </c>
-      <c r="C498" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
@@ -6227,9 +5693,6 @@
       <c r="B502">
         <v>2010</v>
       </c>
-      <c r="C502" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
@@ -6238,9 +5701,6 @@
       <c r="B503">
         <v>2011</v>
       </c>
-      <c r="C503" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
@@ -6260,9 +5720,6 @@
       <c r="B505">
         <v>2013</v>
       </c>
-      <c r="C505" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
@@ -6282,9 +5739,6 @@
       <c r="B507">
         <v>2015</v>
       </c>
-      <c r="C507" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
@@ -6293,9 +5747,6 @@
       <c r="B508">
         <v>2016</v>
       </c>
-      <c r="C508" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
@@ -6304,9 +5755,6 @@
       <c r="B509">
         <v>2017</v>
       </c>
-      <c r="C509" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
@@ -6315,9 +5763,6 @@
       <c r="B510">
         <v>1999</v>
       </c>
-      <c r="C510" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
@@ -6337,9 +5782,6 @@
       <c r="B512">
         <v>2001</v>
       </c>
-      <c r="C512" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
@@ -6348,9 +5790,6 @@
       <c r="B513">
         <v>2002</v>
       </c>
-      <c r="C513" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
@@ -6392,9 +5831,6 @@
       <c r="B517">
         <v>2006</v>
       </c>
-      <c r="C517" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
@@ -6425,9 +5861,6 @@
       <c r="B520">
         <v>2009</v>
       </c>
-      <c r="C520" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
@@ -6513,9 +5946,6 @@
       <c r="B528">
         <v>2017</v>
       </c>
-      <c r="C528" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
@@ -6942,9 +6372,6 @@
       <c r="B567">
         <v>1999</v>
       </c>
-      <c r="C567" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
@@ -7778,9 +7205,6 @@
       <c r="B643">
         <v>1999</v>
       </c>
-      <c r="C643" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
@@ -7789,9 +7213,6 @@
       <c r="B644">
         <v>2000</v>
       </c>
-      <c r="C644" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
@@ -7800,9 +7221,6 @@
       <c r="B645">
         <v>2001</v>
       </c>
-      <c r="C645" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
@@ -7822,9 +7240,6 @@
       <c r="B647">
         <v>2003</v>
       </c>
-      <c r="C647" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
@@ -7844,9 +7259,6 @@
       <c r="B649">
         <v>2005</v>
       </c>
-      <c r="C649" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
@@ -7877,9 +7289,6 @@
       <c r="B652">
         <v>2008</v>
       </c>
-      <c r="C652" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
@@ -7943,9 +7352,6 @@
       <c r="B658">
         <v>2014</v>
       </c>
-      <c r="C658" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
@@ -7976,9 +7382,6 @@
       <c r="B661">
         <v>2017</v>
       </c>
-      <c r="C661" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
@@ -8185,9 +7588,6 @@
       <c r="B680">
         <v>1999</v>
       </c>
-      <c r="C680" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
@@ -8207,9 +7607,6 @@
       <c r="B682">
         <v>2001</v>
       </c>
-      <c r="C682" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
@@ -8218,9 +7615,6 @@
       <c r="B683">
         <v>2002</v>
       </c>
-      <c r="C683" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
@@ -8240,9 +7634,6 @@
       <c r="B685">
         <v>2004</v>
       </c>
-      <c r="C685" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
@@ -8273,9 +7664,6 @@
       <c r="B688">
         <v>2007</v>
       </c>
-      <c r="C688" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
@@ -8383,9 +7771,6 @@
       <c r="B698">
         <v>1999</v>
       </c>
-      <c r="C698" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
@@ -8394,9 +7779,6 @@
       <c r="B699">
         <v>2000</v>
       </c>
-      <c r="C699" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
@@ -8405,9 +7787,6 @@
       <c r="B700">
         <v>2001</v>
       </c>
-      <c r="C700" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
@@ -8460,9 +7839,6 @@
       <c r="B705">
         <v>2006</v>
       </c>
-      <c r="C705" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
@@ -8592,9 +7968,6 @@
       <c r="B717">
         <v>1999</v>
       </c>
-      <c r="C717" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
@@ -8603,9 +7976,6 @@
       <c r="B718">
         <v>2000</v>
       </c>
-      <c r="C718" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
@@ -8614,9 +7984,6 @@
       <c r="B719">
         <v>2001</v>
       </c>
-      <c r="C719" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
@@ -8625,9 +7992,6 @@
       <c r="B720">
         <v>2002</v>
       </c>
-      <c r="C720" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
@@ -8636,9 +8000,6 @@
       <c r="B721">
         <v>2003</v>
       </c>
-      <c r="C721" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
@@ -8658,9 +8019,6 @@
       <c r="B723">
         <v>2005</v>
       </c>
-      <c r="C723" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
@@ -8669,9 +8027,6 @@
       <c r="B724">
         <v>2006</v>
       </c>
-      <c r="C724" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
@@ -8702,9 +8057,6 @@
       <c r="B727">
         <v>2009</v>
       </c>
-      <c r="C727" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
@@ -8735,9 +8087,6 @@
       <c r="B730">
         <v>2012</v>
       </c>
-      <c r="C730" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
@@ -8746,9 +8095,6 @@
       <c r="B731">
         <v>2013</v>
       </c>
-      <c r="C731" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
@@ -8757,9 +8103,6 @@
       <c r="B732">
         <v>2014</v>
       </c>
-      <c r="C732" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
@@ -8779,9 +8122,6 @@
       <c r="B734">
         <v>2016</v>
       </c>
-      <c r="C734" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
@@ -8790,9 +8130,6 @@
       <c r="B735">
         <v>2017</v>
       </c>
-      <c r="C735" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
@@ -8801,9 +8138,6 @@
       <c r="B736">
         <v>1999</v>
       </c>
-      <c r="C736" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
@@ -8812,9 +8146,6 @@
       <c r="B737">
         <v>2000</v>
       </c>
-      <c r="C737" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
@@ -8823,9 +8154,6 @@
       <c r="B738">
         <v>2001</v>
       </c>
-      <c r="C738" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
@@ -8834,9 +8162,6 @@
       <c r="B739">
         <v>2002</v>
       </c>
-      <c r="C739" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
@@ -8845,9 +8170,6 @@
       <c r="B740">
         <v>2003</v>
       </c>
-      <c r="C740" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
@@ -8922,9 +8244,6 @@
       <c r="B747">
         <v>2010</v>
       </c>
-      <c r="C747" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
@@ -9615,9 +8934,6 @@
       <c r="B810">
         <v>1999</v>
       </c>
-      <c r="C810" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
@@ -9626,9 +8942,6 @@
       <c r="B811">
         <v>2000</v>
       </c>
-      <c r="C811" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
@@ -9648,9 +8961,6 @@
       <c r="B813">
         <v>2002</v>
       </c>
-      <c r="C813" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
@@ -9670,9 +8980,6 @@
       <c r="B815">
         <v>2004</v>
       </c>
-      <c r="C815" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
@@ -9681,9 +8988,6 @@
       <c r="B816">
         <v>2005</v>
       </c>
-      <c r="C816" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
@@ -9703,9 +9007,6 @@
       <c r="B818">
         <v>2007</v>
       </c>
-      <c r="C818" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
@@ -9714,9 +9015,6 @@
       <c r="B819">
         <v>2008</v>
       </c>
-      <c r="C819" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
@@ -9747,9 +9045,6 @@
       <c r="B822">
         <v>2011</v>
       </c>
-      <c r="C822" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
@@ -10033,9 +9328,6 @@
       <c r="B848">
         <v>1999</v>
       </c>
-      <c r="C848" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
@@ -10055,9 +9347,6 @@
       <c r="B850">
         <v>2001</v>
       </c>
-      <c r="C850" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
@@ -10066,9 +9355,6 @@
       <c r="B851">
         <v>2002</v>
       </c>
-      <c r="C851" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
@@ -10077,9 +9363,6 @@
       <c r="B852">
         <v>2003</v>
       </c>
-      <c r="C852" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
@@ -10121,9 +9404,6 @@
       <c r="B856">
         <v>2007</v>
       </c>
-      <c r="C856" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
@@ -10154,9 +9434,6 @@
       <c r="B859">
         <v>2010</v>
       </c>
-      <c r="C859" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
@@ -10165,9 +9442,6 @@
       <c r="B860">
         <v>2011</v>
       </c>
-      <c r="C860" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
@@ -10187,9 +9461,6 @@
       <c r="B862">
         <v>2013</v>
       </c>
-      <c r="C862" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
@@ -10209,9 +9480,6 @@
       <c r="B864">
         <v>2015</v>
       </c>
-      <c r="C864" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
@@ -10231,9 +9499,6 @@
       <c r="B866">
         <v>1999</v>
       </c>
-      <c r="C866" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
@@ -10242,9 +9507,6 @@
       <c r="B867">
         <v>2000</v>
       </c>
-      <c r="C867" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
@@ -10253,9 +9515,6 @@
       <c r="B868">
         <v>2001</v>
       </c>
-      <c r="C868" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
@@ -10264,9 +9523,6 @@
       <c r="B869">
         <v>2002</v>
       </c>
-      <c r="C869" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
@@ -10286,9 +9542,6 @@
       <c r="B871">
         <v>2004</v>
       </c>
-      <c r="C871" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
@@ -10297,9 +9550,6 @@
       <c r="B872">
         <v>2005</v>
       </c>
-      <c r="C872" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
@@ -10319,9 +9569,6 @@
       <c r="B874">
         <v>2007</v>
       </c>
-      <c r="C874" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
@@ -10374,9 +9621,6 @@
       <c r="B879">
         <v>2012</v>
       </c>
-      <c r="C879" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
@@ -10385,9 +9629,6 @@
       <c r="B880">
         <v>2013</v>
       </c>
-      <c r="C880" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
@@ -10396,9 +9637,6 @@
       <c r="B881">
         <v>2014</v>
       </c>
-      <c r="C881" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
@@ -10418,9 +9656,6 @@
       <c r="B883">
         <v>2016</v>
       </c>
-      <c r="C883" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
@@ -10429,9 +9664,6 @@
       <c r="B884">
         <v>2017</v>
       </c>
-      <c r="C884" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
@@ -10440,9 +9672,6 @@
       <c r="B885">
         <v>1999</v>
       </c>
-      <c r="C885" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
@@ -10451,9 +9680,6 @@
       <c r="B886">
         <v>2000</v>
       </c>
-      <c r="C886" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
@@ -10462,9 +9688,6 @@
       <c r="B887">
         <v>2001</v>
       </c>
-      <c r="C887" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
@@ -10649,9 +9872,6 @@
       <c r="B904">
         <v>1999</v>
       </c>
-      <c r="C904" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
@@ -10660,9 +9880,6 @@
       <c r="B905">
         <v>2000</v>
       </c>
-      <c r="C905" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
@@ -10671,9 +9888,6 @@
       <c r="B906">
         <v>2001</v>
       </c>
-      <c r="C906" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
@@ -10682,9 +9896,6 @@
       <c r="B907">
         <v>2002</v>
       </c>
-      <c r="C907" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
@@ -10693,9 +9904,6 @@
       <c r="B908">
         <v>2003</v>
       </c>
-      <c r="C908" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
@@ -10726,9 +9934,6 @@
       <c r="B911">
         <v>2006</v>
       </c>
-      <c r="C911" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
@@ -10759,9 +9964,6 @@
       <c r="B914">
         <v>2009</v>
       </c>
-      <c r="C914" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
@@ -10803,9 +10005,6 @@
       <c r="B918">
         <v>2013</v>
       </c>
-      <c r="C918" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
@@ -10814,9 +10013,6 @@
       <c r="B919">
         <v>2014</v>
       </c>
-      <c r="C919" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
@@ -10825,9 +10021,6 @@
       <c r="B920">
         <v>2015</v>
       </c>
-      <c r="C920" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
@@ -10847,9 +10040,6 @@
       <c r="B922">
         <v>2017</v>
       </c>
-      <c r="C922" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
@@ -11067,9 +10257,6 @@
       <c r="B942">
         <v>1999</v>
       </c>
-      <c r="C942" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
@@ -11078,9 +10265,6 @@
       <c r="B943">
         <v>2000</v>
       </c>
-      <c r="C943" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
@@ -11089,9 +10273,6 @@
       <c r="B944">
         <v>2001</v>
       </c>
-      <c r="C944" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
@@ -11133,9 +10314,6 @@
       <c r="B948">
         <v>2005</v>
       </c>
-      <c r="C948" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
@@ -11155,9 +10333,6 @@
       <c r="B950">
         <v>2007</v>
       </c>
-      <c r="C950" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
@@ -11199,9 +10374,6 @@
       <c r="B954">
         <v>2011</v>
       </c>
-      <c r="C954" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
@@ -11265,9 +10437,6 @@
       <c r="B960">
         <v>1999</v>
       </c>
-      <c r="C960" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
@@ -11276,9 +10445,6 @@
       <c r="B961">
         <v>2000</v>
       </c>
-      <c r="C961" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
@@ -11287,9 +10453,6 @@
       <c r="B962">
         <v>2001</v>
       </c>
-      <c r="C962" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
@@ -11298,9 +10461,6 @@
       <c r="B963">
         <v>2002</v>
       </c>
-      <c r="C963" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
@@ -11309,9 +10469,6 @@
       <c r="B964">
         <v>2003</v>
       </c>
-      <c r="C964" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
@@ -11331,9 +10488,6 @@
       <c r="B966">
         <v>2005</v>
       </c>
-      <c r="C966" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
@@ -11386,9 +10540,6 @@
       <c r="B971">
         <v>2010</v>
       </c>
-      <c r="C971" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
@@ -11441,9 +10592,6 @@
       <c r="B976">
         <v>2015</v>
       </c>
-      <c r="C976" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
@@ -11452,9 +10600,6 @@
       <c r="B977">
         <v>2016</v>
       </c>
-      <c r="C977" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
@@ -11463,9 +10608,6 @@
       <c r="B978">
         <v>2017</v>
       </c>
-      <c r="C978" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
@@ -11474,9 +10616,6 @@
       <c r="B979">
         <v>1999</v>
       </c>
-      <c r="C979" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
@@ -11485,9 +10624,6 @@
       <c r="B980">
         <v>2000</v>
       </c>
-      <c r="C980" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
@@ -11551,9 +10687,6 @@
       <c r="B986">
         <v>2006</v>
       </c>
-      <c r="C986" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
@@ -11584,9 +10717,6 @@
       <c r="B989">
         <v>2009</v>
       </c>
-      <c r="C989" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
@@ -11595,9 +10725,6 @@
       <c r="B990">
         <v>2010</v>
       </c>
-      <c r="C990" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
@@ -11606,9 +10733,6 @@
       <c r="B991">
         <v>2011</v>
       </c>
-      <c r="C991" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
@@ -11661,9 +10785,6 @@
       <c r="B996">
         <v>2016</v>
       </c>
-      <c r="C996" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
@@ -11683,9 +10804,6 @@
       <c r="B998">
         <v>1999</v>
       </c>
-      <c r="C998" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
@@ -11892,9 +11010,6 @@
       <c r="B1017">
         <v>1999</v>
       </c>
-      <c r="C1017" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
@@ -11925,9 +11040,6 @@
       <c r="B1020">
         <v>2002</v>
       </c>
-      <c r="C1020" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
@@ -11947,9 +11059,6 @@
       <c r="B1022">
         <v>2004</v>
       </c>
-      <c r="C1022" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
@@ -11969,9 +11078,6 @@
       <c r="B1024">
         <v>2006</v>
       </c>
-      <c r="C1024" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
@@ -11980,9 +11086,6 @@
       <c r="B1025">
         <v>2007</v>
       </c>
-      <c r="C1025" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
@@ -11991,9 +11094,6 @@
       <c r="B1026">
         <v>2008</v>
       </c>
-      <c r="C1026" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
@@ -12002,9 +11102,6 @@
       <c r="B1027">
         <v>2009</v>
       </c>
-      <c r="C1027" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
@@ -12013,9 +11110,6 @@
       <c r="B1028">
         <v>2010</v>
       </c>
-      <c r="C1028" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
@@ -12090,9 +11184,6 @@
       <c r="B1035">
         <v>1999</v>
       </c>
-      <c r="C1035" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
@@ -12288,9 +11379,6 @@
       <c r="B1053">
         <v>1999</v>
       </c>
-      <c r="C1053" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
@@ -12310,9 +11398,6 @@
       <c r="B1055">
         <v>2001</v>
       </c>
-      <c r="C1055" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
@@ -12321,9 +11406,6 @@
       <c r="B1056">
         <v>2002</v>
       </c>
-      <c r="C1056" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
@@ -12332,9 +11414,6 @@
       <c r="B1057">
         <v>2003</v>
       </c>
-      <c r="C1057" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
@@ -12354,9 +11433,6 @@
       <c r="B1059">
         <v>2005</v>
       </c>
-      <c r="C1059" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
@@ -12365,9 +11441,6 @@
       <c r="B1060">
         <v>2006</v>
       </c>
-      <c r="C1060" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
@@ -12376,9 +11449,6 @@
       <c r="B1061">
         <v>2007</v>
       </c>
-      <c r="C1061" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
@@ -12398,9 +11468,6 @@
       <c r="B1063">
         <v>2009</v>
       </c>
-      <c r="C1063" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
@@ -12409,9 +11476,6 @@
       <c r="B1064">
         <v>2010</v>
       </c>
-      <c r="C1064" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
@@ -12420,9 +11484,6 @@
       <c r="B1065">
         <v>2011</v>
       </c>
-      <c r="C1065" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
@@ -12486,9 +11547,6 @@
       <c r="B1071">
         <v>2017</v>
       </c>
-      <c r="C1071" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
@@ -12497,9 +11555,6 @@
       <c r="B1072">
         <v>1999</v>
       </c>
-      <c r="C1072" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
@@ -12508,9 +11563,6 @@
       <c r="B1073">
         <v>2000</v>
       </c>
-      <c r="C1073" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
@@ -12519,9 +11571,6 @@
       <c r="B1074">
         <v>2001</v>
       </c>
-      <c r="C1074" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
@@ -12530,9 +11579,6 @@
       <c r="B1075">
         <v>2002</v>
       </c>
-      <c r="C1075" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
@@ -12541,9 +11587,6 @@
       <c r="B1076">
         <v>2003</v>
       </c>
-      <c r="C1076" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
@@ -12552,9 +11595,6 @@
       <c r="B1077">
         <v>2004</v>
       </c>
-      <c r="C1077" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
@@ -12574,9 +11614,6 @@
       <c r="B1079">
         <v>2006</v>
       </c>
-      <c r="C1079" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
@@ -12618,9 +11655,6 @@
       <c r="B1083">
         <v>2010</v>
       </c>
-      <c r="C1083" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
@@ -12640,9 +11674,6 @@
       <c r="B1085">
         <v>2012</v>
       </c>
-      <c r="C1085" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
@@ -12651,9 +11682,6 @@
       <c r="B1086">
         <v>2013</v>
       </c>
-      <c r="C1086" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
@@ -12662,9 +11690,6 @@
       <c r="B1087">
         <v>2014</v>
       </c>
-      <c r="C1087" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
@@ -12684,9 +11709,6 @@
       <c r="B1089">
         <v>2016</v>
       </c>
-      <c r="C1089" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
@@ -12695,9 +11717,6 @@
       <c r="B1090">
         <v>2017</v>
       </c>
-      <c r="C1090" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
@@ -12717,9 +11736,6 @@
       <c r="B1092">
         <v>2000</v>
       </c>
-      <c r="C1092" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
@@ -12915,9 +11931,6 @@
       <c r="B1110">
         <v>1999</v>
       </c>
-      <c r="C1110" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
@@ -12937,9 +11950,6 @@
       <c r="B1112">
         <v>2001</v>
       </c>
-      <c r="C1112" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
@@ -12948,9 +11958,6 @@
       <c r="B1113">
         <v>2002</v>
       </c>
-      <c r="C1113" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
@@ -12970,9 +11977,6 @@
       <c r="B1115">
         <v>2004</v>
       </c>
-      <c r="C1115" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
@@ -12981,9 +11985,6 @@
       <c r="B1116">
         <v>2005</v>
       </c>
-      <c r="C1116" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
@@ -12992,9 +11993,6 @@
       <c r="B1117">
         <v>2006</v>
       </c>
-      <c r="C1117" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
@@ -13047,9 +12045,6 @@
       <c r="B1122">
         <v>2011</v>
       </c>
-      <c r="C1122" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
@@ -13058,9 +12053,6 @@
       <c r="B1123">
         <v>2012</v>
       </c>
-      <c r="C1123" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
@@ -13080,9 +12072,6 @@
       <c r="B1125">
         <v>2014</v>
       </c>
-      <c r="C1125" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
@@ -13102,9 +12091,6 @@
       <c r="B1127">
         <v>2016</v>
       </c>
-      <c r="C1127" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
@@ -13113,9 +12099,6 @@
       <c r="B1128">
         <v>2017</v>
       </c>
-      <c r="C1128" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
@@ -13124,9 +12107,6 @@
       <c r="B1129">
         <v>1999</v>
       </c>
-      <c r="C1129" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
@@ -13135,9 +12115,6 @@
       <c r="B1130">
         <v>2000</v>
       </c>
-      <c r="C1130" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
@@ -13146,9 +12123,6 @@
       <c r="B1131">
         <v>2001</v>
       </c>
-      <c r="C1131" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
@@ -13157,9 +12131,6 @@
       <c r="B1132">
         <v>2002</v>
       </c>
-      <c r="C1132" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
@@ -13168,9 +12139,6 @@
       <c r="B1133">
         <v>2003</v>
       </c>
-      <c r="C1133" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
@@ -13179,9 +12147,6 @@
       <c r="B1134">
         <v>2004</v>
       </c>
-      <c r="C1134" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
@@ -13190,9 +12155,6 @@
       <c r="B1135">
         <v>2005</v>
       </c>
-      <c r="C1135" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
@@ -13201,9 +12163,6 @@
       <c r="B1136">
         <v>2006</v>
       </c>
-      <c r="C1136" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
@@ -13212,9 +12171,6 @@
       <c r="B1137">
         <v>2007</v>
       </c>
-      <c r="C1137" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
@@ -13223,9 +12179,6 @@
       <c r="B1138">
         <v>2008</v>
       </c>
-      <c r="C1138" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
@@ -13234,9 +12187,6 @@
       <c r="B1139">
         <v>2009</v>
       </c>
-      <c r="C1139" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
@@ -13245,9 +12195,6 @@
       <c r="B1140">
         <v>2010</v>
       </c>
-      <c r="C1140" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
@@ -13256,9 +12203,6 @@
       <c r="B1141">
         <v>2011</v>
       </c>
-      <c r="C1141" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
@@ -13278,9 +12222,6 @@
       <c r="B1143">
         <v>2013</v>
       </c>
-      <c r="C1143" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
@@ -13322,9 +12263,6 @@
       <c r="B1147">
         <v>2017</v>
       </c>
-      <c r="C1147" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
@@ -13344,9 +12282,6 @@
       <c r="B1149">
         <v>2000</v>
       </c>
-      <c r="C1149" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
@@ -13355,9 +12290,6 @@
       <c r="B1150">
         <v>2001</v>
       </c>
-      <c r="C1150" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
@@ -13366,9 +12298,6 @@
       <c r="B1151">
         <v>2002</v>
       </c>
-      <c r="C1151" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
@@ -13377,9 +12306,6 @@
       <c r="B1152">
         <v>2003</v>
       </c>
-      <c r="C1152" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
@@ -13388,9 +12314,6 @@
       <c r="B1153">
         <v>2004</v>
       </c>
-      <c r="C1153" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
@@ -13410,9 +12333,6 @@
       <c r="B1155">
         <v>2006</v>
       </c>
-      <c r="C1155" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
@@ -13432,9 +12352,6 @@
       <c r="B1157">
         <v>2008</v>
       </c>
-      <c r="C1157" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
@@ -13454,9 +12371,6 @@
       <c r="B1159">
         <v>2010</v>
       </c>
-      <c r="C1159" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
@@ -13476,9 +12390,6 @@
       <c r="B1161">
         <v>2012</v>
       </c>
-      <c r="C1161" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
@@ -13498,9 +12409,6 @@
       <c r="B1163">
         <v>2014</v>
       </c>
-      <c r="C1163" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
@@ -13509,9 +12417,6 @@
       <c r="B1164">
         <v>2015</v>
       </c>
-      <c r="C1164" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
@@ -13531,9 +12436,6 @@
       <c r="B1166">
         <v>2017</v>
       </c>
-      <c r="C1166" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
@@ -13542,9 +12444,6 @@
       <c r="B1167">
         <v>1999</v>
       </c>
-      <c r="C1167" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
@@ -13553,9 +12452,6 @@
       <c r="B1168">
         <v>2000</v>
       </c>
-      <c r="C1168" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
@@ -13564,9 +12460,6 @@
       <c r="B1169">
         <v>2001</v>
       </c>
-      <c r="C1169" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
@@ -13575,9 +12468,6 @@
       <c r="B1170">
         <v>2002</v>
       </c>
-      <c r="C1170" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
@@ -13586,9 +12476,6 @@
       <c r="B1171">
         <v>2003</v>
       </c>
-      <c r="C1171" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
@@ -13597,9 +12484,6 @@
       <c r="B1172">
         <v>2004</v>
       </c>
-      <c r="C1172" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
@@ -13608,9 +12492,6 @@
       <c r="B1173">
         <v>2005</v>
       </c>
-      <c r="C1173" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
@@ -13619,9 +12500,6 @@
       <c r="B1174">
         <v>2006</v>
       </c>
-      <c r="C1174" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
@@ -13630,9 +12508,6 @@
       <c r="B1175">
         <v>2007</v>
       </c>
-      <c r="C1175" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
@@ -13641,9 +12516,6 @@
       <c r="B1176">
         <v>2008</v>
       </c>
-      <c r="C1176" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
@@ -13663,9 +12535,6 @@
       <c r="B1178">
         <v>2010</v>
       </c>
-      <c r="C1178" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
@@ -13674,9 +12543,6 @@
       <c r="B1179">
         <v>2011</v>
       </c>
-      <c r="C1179" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
@@ -13685,9 +12551,6 @@
       <c r="B1180">
         <v>2012</v>
       </c>
-      <c r="C1180" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
@@ -13696,9 +12559,6 @@
       <c r="B1181">
         <v>2013</v>
       </c>
-      <c r="C1181" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
@@ -13707,9 +12567,6 @@
       <c r="B1182">
         <v>2014</v>
       </c>
-      <c r="C1182" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
@@ -13729,9 +12586,6 @@
       <c r="B1184">
         <v>2016</v>
       </c>
-      <c r="C1184" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
@@ -13740,9 +12594,6 @@
       <c r="B1185">
         <v>2017</v>
       </c>
-      <c r="C1185" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
@@ -14169,9 +13020,6 @@
       <c r="B1224">
         <v>1999</v>
       </c>
-      <c r="C1224" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
@@ -14180,9 +13028,6 @@
       <c r="B1225">
         <v>2000</v>
       </c>
-      <c r="C1225" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
@@ -14191,9 +13036,6 @@
       <c r="B1226">
         <v>2001</v>
       </c>
-      <c r="C1226" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
@@ -14202,9 +13044,6 @@
       <c r="B1227">
         <v>2002</v>
       </c>
-      <c r="C1227" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
@@ -14213,9 +13052,6 @@
       <c r="B1228">
         <v>2003</v>
       </c>
-      <c r="C1228" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
@@ -14235,9 +13071,6 @@
       <c r="B1230">
         <v>2005</v>
       </c>
-      <c r="C1230" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
@@ -14246,9 +13079,6 @@
       <c r="B1231">
         <v>2006</v>
       </c>
-      <c r="C1231" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
@@ -14257,9 +13087,6 @@
       <c r="B1232">
         <v>2007</v>
       </c>
-      <c r="C1232" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
@@ -14268,9 +13095,6 @@
       <c r="B1233">
         <v>2008</v>
       </c>
-      <c r="C1233" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
@@ -14279,9 +13103,6 @@
       <c r="B1234">
         <v>2009</v>
       </c>
-      <c r="C1234" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
@@ -14290,9 +13111,6 @@
       <c r="B1235">
         <v>2010</v>
       </c>
-      <c r="C1235" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
@@ -14334,9 +13152,6 @@
       <c r="B1239">
         <v>2014</v>
       </c>
-      <c r="C1239" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
@@ -14345,9 +13160,6 @@
       <c r="B1240">
         <v>2015</v>
       </c>
-      <c r="C1240" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
@@ -14367,9 +13179,6 @@
       <c r="B1242">
         <v>1999</v>
       </c>
-      <c r="C1242" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
@@ -14378,9 +13187,6 @@
       <c r="B1243">
         <v>2000</v>
       </c>
-      <c r="C1243" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
@@ -14389,9 +13195,6 @@
       <c r="B1244">
         <v>2001</v>
       </c>
-      <c r="C1244" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
@@ -14400,9 +13203,6 @@
       <c r="B1245">
         <v>2002</v>
       </c>
-      <c r="C1245" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
@@ -14422,9 +13222,6 @@
       <c r="B1247">
         <v>2004</v>
       </c>
-      <c r="C1247" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
@@ -14433,9 +13230,6 @@
       <c r="B1248">
         <v>2005</v>
       </c>
-      <c r="C1248" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
@@ -14444,9 +13238,6 @@
       <c r="B1249">
         <v>2006</v>
       </c>
-      <c r="C1249" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
@@ -14565,9 +13356,6 @@
       <c r="B1260">
         <v>2017</v>
       </c>
-      <c r="C1260" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
@@ -14785,9 +13573,6 @@
       <c r="B1280">
         <v>1999</v>
       </c>
-      <c r="C1280" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
@@ -14796,9 +13581,6 @@
       <c r="B1281">
         <v>2000</v>
       </c>
-      <c r="C1281" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
@@ -14807,9 +13589,6 @@
       <c r="B1282">
         <v>2001</v>
       </c>
-      <c r="C1282" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
@@ -14818,9 +13597,6 @@
       <c r="B1283">
         <v>2002</v>
       </c>
-      <c r="C1283" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
@@ -14829,9 +13605,6 @@
       <c r="B1284">
         <v>2003</v>
       </c>
-      <c r="C1284" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
@@ -14840,9 +13613,6 @@
       <c r="B1285">
         <v>2004</v>
       </c>
-      <c r="C1285" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
@@ -14851,9 +13621,6 @@
       <c r="B1286">
         <v>2005</v>
       </c>
-      <c r="C1286" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
@@ -14895,9 +13662,6 @@
       <c r="B1290">
         <v>2009</v>
       </c>
-      <c r="C1290" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
@@ -14906,9 +13670,6 @@
       <c r="B1291">
         <v>2010</v>
       </c>
-      <c r="C1291" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
@@ -14950,9 +13711,6 @@
       <c r="B1295">
         <v>2014</v>
       </c>
-      <c r="C1295" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
@@ -14972,9 +13730,6 @@
       <c r="B1297">
         <v>2016</v>
       </c>
-      <c r="C1297" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
@@ -14983,9 +13738,6 @@
       <c r="B1298">
         <v>2017</v>
       </c>
-      <c r="C1298" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
@@ -14994,9 +13746,6 @@
       <c r="B1299">
         <v>1999</v>
       </c>
-      <c r="C1299" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
@@ -15016,9 +13765,6 @@
       <c r="B1301">
         <v>2001</v>
       </c>
-      <c r="C1301" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
@@ -15060,9 +13806,6 @@
       <c r="B1305">
         <v>2005</v>
       </c>
-      <c r="C1305" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
@@ -15082,9 +13825,6 @@
       <c r="B1307">
         <v>2007</v>
       </c>
-      <c r="C1307" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
@@ -15126,9 +13866,6 @@
       <c r="B1311">
         <v>2011</v>
       </c>
-      <c r="C1311" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
@@ -15203,9 +13940,6 @@
       <c r="B1318">
         <v>1999</v>
       </c>
-      <c r="C1318" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
@@ -15401,9 +14135,6 @@
       <c r="B1336">
         <v>1999</v>
       </c>
-      <c r="C1336" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
@@ -15412,9 +14143,6 @@
       <c r="B1337">
         <v>2000</v>
       </c>
-      <c r="C1337" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
@@ -15423,9 +14151,6 @@
       <c r="B1338">
         <v>2001</v>
       </c>
-      <c r="C1338" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
@@ -15434,9 +14159,6 @@
       <c r="B1339">
         <v>2002</v>
       </c>
-      <c r="C1339" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
@@ -15445,9 +14167,6 @@
       <c r="B1340">
         <v>2003</v>
       </c>
-      <c r="C1340" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
@@ -15467,9 +14186,6 @@
       <c r="B1342">
         <v>2005</v>
       </c>
-      <c r="C1342" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
@@ -15478,9 +14194,6 @@
       <c r="B1343">
         <v>2006</v>
       </c>
-      <c r="C1343" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
@@ -15489,9 +14202,6 @@
       <c r="B1344">
         <v>2007</v>
       </c>
-      <c r="C1344" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
@@ -15500,9 +14210,6 @@
       <c r="B1345">
         <v>2008</v>
       </c>
-      <c r="C1345" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
@@ -15511,9 +14218,6 @@
       <c r="B1346">
         <v>2009</v>
       </c>
-      <c r="C1346" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
@@ -15522,9 +14226,6 @@
       <c r="B1347">
         <v>2010</v>
       </c>
-      <c r="C1347" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
@@ -15533,9 +14234,6 @@
       <c r="B1348">
         <v>2011</v>
       </c>
-      <c r="C1348" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
@@ -15544,9 +14242,6 @@
       <c r="B1349">
         <v>2012</v>
       </c>
-      <c r="C1349" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
@@ -15555,9 +14250,6 @@
       <c r="B1350">
         <v>2013</v>
       </c>
-      <c r="C1350" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
@@ -15566,9 +14258,6 @@
       <c r="B1351">
         <v>2014</v>
       </c>
-      <c r="C1351" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
@@ -15577,9 +14266,6 @@
       <c r="B1352">
         <v>2015</v>
       </c>
-      <c r="C1352" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
@@ -15588,9 +14274,6 @@
       <c r="B1353">
         <v>2016</v>
       </c>
-      <c r="C1353" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
@@ -15599,9 +14282,6 @@
       <c r="B1354">
         <v>2017</v>
       </c>
-      <c r="C1354" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
@@ -16226,9 +14906,6 @@
       <c r="B1411">
         <v>2017</v>
       </c>
-      <c r="C1411" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
@@ -16446,9 +15123,6 @@
       <c r="B1431">
         <v>1999</v>
       </c>
-      <c r="C1431" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
@@ -16655,9 +15329,6 @@
       <c r="B1450">
         <v>1999</v>
       </c>
-      <c r="C1450" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
@@ -16666,9 +15337,6 @@
       <c r="B1451">
         <v>2000</v>
       </c>
-      <c r="C1451" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
@@ -16677,9 +15345,6 @@
       <c r="B1452">
         <v>2001</v>
       </c>
-      <c r="C1452" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
@@ -16688,9 +15353,6 @@
       <c r="B1453">
         <v>2002</v>
       </c>
-      <c r="C1453" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
@@ -16699,9 +15361,6 @@
       <c r="B1454">
         <v>2003</v>
       </c>
-      <c r="C1454" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
@@ -16710,9 +15369,6 @@
       <c r="B1455">
         <v>2004</v>
       </c>
-      <c r="C1455" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
@@ -16721,9 +15377,6 @@
       <c r="B1456">
         <v>2005</v>
       </c>
-      <c r="C1456" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
@@ -16732,9 +15385,6 @@
       <c r="B1457">
         <v>2006</v>
       </c>
-      <c r="C1457" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
@@ -16743,9 +15393,6 @@
       <c r="B1458">
         <v>2007</v>
       </c>
-      <c r="C1458" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
@@ -16754,9 +15401,6 @@
       <c r="B1459">
         <v>2008</v>
       </c>
-      <c r="C1459" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
@@ -16765,9 +15409,6 @@
       <c r="B1460">
         <v>2009</v>
       </c>
-      <c r="C1460" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
@@ -16776,9 +15417,6 @@
       <c r="B1461">
         <v>2010</v>
       </c>
-      <c r="C1461" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
@@ -16787,9 +15425,6 @@
       <c r="B1462">
         <v>2011</v>
       </c>
-      <c r="C1462" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
@@ -16798,9 +15433,6 @@
       <c r="B1463">
         <v>2012</v>
       </c>
-      <c r="C1463" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
@@ -16820,9 +15452,6 @@
       <c r="B1465">
         <v>2014</v>
       </c>
-      <c r="C1465" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
@@ -16831,9 +15460,6 @@
       <c r="B1466">
         <v>2015</v>
       </c>
-      <c r="C1466" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
@@ -17271,9 +15897,6 @@
       <c r="B1506">
         <v>1999</v>
       </c>
-      <c r="C1506" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
@@ -17293,9 +15916,6 @@
       <c r="B1508">
         <v>2001</v>
       </c>
-      <c r="C1508" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
@@ -17304,9 +15924,6 @@
       <c r="B1509">
         <v>2002</v>
       </c>
-      <c r="C1509" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
@@ -17480,9 +16097,6 @@
       <c r="B1525">
         <v>1999</v>
       </c>
-      <c r="C1525" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1526" t="s">
@@ -17557,9 +16171,6 @@
       <c r="B1532">
         <v>2006</v>
       </c>
-      <c r="C1532" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
@@ -17568,9 +16179,6 @@
       <c r="B1533">
         <v>2007</v>
       </c>
-      <c r="C1533" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
@@ -17689,9 +16297,6 @@
       <c r="B1544">
         <v>1999</v>
       </c>
-      <c r="C1544" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
@@ -17722,9 +16327,6 @@
       <c r="B1547">
         <v>2002</v>
       </c>
-      <c r="C1547" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
@@ -17733,9 +16335,6 @@
       <c r="B1548">
         <v>2003</v>
       </c>
-      <c r="C1548" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1549" t="s">
@@ -17744,9 +16343,6 @@
       <c r="B1549">
         <v>2004</v>
       </c>
-      <c r="C1549" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
@@ -17777,9 +16373,6 @@
       <c r="B1552">
         <v>2007</v>
       </c>
-      <c r="C1552" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
@@ -17788,9 +16381,6 @@
       <c r="B1553">
         <v>2008</v>
       </c>
-      <c r="C1553" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
@@ -17810,9 +16400,6 @@
       <c r="B1555">
         <v>2010</v>
       </c>
-      <c r="C1555" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
@@ -17821,9 +16408,6 @@
       <c r="B1556">
         <v>2011</v>
       </c>
-      <c r="C1556" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
@@ -17854,9 +16438,6 @@
       <c r="B1559">
         <v>2014</v>
       </c>
-      <c r="C1559" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
@@ -17865,9 +16446,6 @@
       <c r="B1560">
         <v>2015</v>
       </c>
-      <c r="C1560" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
@@ -17876,9 +16454,6 @@
       <c r="B1561">
         <v>2016</v>
       </c>
-      <c r="C1561" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
@@ -17887,9 +16462,6 @@
       <c r="B1562">
         <v>2017</v>
       </c>
-      <c r="C1562" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
@@ -18734,9 +17306,6 @@
       <c r="B1639">
         <v>1999</v>
       </c>
-      <c r="C1639" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1640" t="s">
@@ -18745,9 +17314,6 @@
       <c r="B1640">
         <v>2000</v>
       </c>
-      <c r="C1640" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1641" t="s">
@@ -18756,9 +17322,6 @@
       <c r="B1641">
         <v>2001</v>
       </c>
-      <c r="C1641" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1642" t="s">
@@ -18767,9 +17330,6 @@
       <c r="B1642">
         <v>2002</v>
       </c>
-      <c r="C1642" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1643" t="s">
@@ -18778,9 +17338,6 @@
       <c r="B1643">
         <v>2003</v>
       </c>
-      <c r="C1643" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1644" t="s">
@@ -18822,9 +17379,6 @@
       <c r="B1647">
         <v>2007</v>
       </c>
-      <c r="C1647" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1648" t="s">
@@ -18855,9 +17409,6 @@
       <c r="B1650">
         <v>2010</v>
       </c>
-      <c r="C1650" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1651" t="s">
@@ -18866,9 +17417,6 @@
       <c r="B1651">
         <v>2011</v>
       </c>
-      <c r="C1651" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1652" t="s">
@@ -18910,9 +17458,6 @@
       <c r="B1655">
         <v>2015</v>
       </c>
-      <c r="C1655" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1656" t="s">
@@ -18932,9 +17477,6 @@
       <c r="B1657">
         <v>1999</v>
       </c>
-      <c r="C1657" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1658" t="s">
@@ -19141,9 +17683,6 @@
       <c r="B1676">
         <v>1999</v>
       </c>
-      <c r="C1676" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1677" t="s">
@@ -19152,9 +17691,6 @@
       <c r="B1677">
         <v>2000</v>
       </c>
-      <c r="C1677" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1678" t="s">
@@ -19163,9 +17699,6 @@
       <c r="B1678">
         <v>2001</v>
       </c>
-      <c r="C1678" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1679" t="s">
@@ -19185,9 +17718,6 @@
       <c r="B1680">
         <v>2003</v>
       </c>
-      <c r="C1680" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1681" t="s">
@@ -19196,9 +17726,6 @@
       <c r="B1681">
         <v>2004</v>
       </c>
-      <c r="C1681" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1682" t="s">
@@ -19240,9 +17767,6 @@
       <c r="B1685">
         <v>2008</v>
       </c>
-      <c r="C1685" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1686" t="s">
@@ -19251,9 +17775,6 @@
       <c r="B1686">
         <v>2009</v>
       </c>
-      <c r="C1686" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1687" t="s">
@@ -19284,9 +17805,6 @@
       <c r="B1689">
         <v>2012</v>
       </c>
-      <c r="C1689" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1690" t="s">
@@ -19295,9 +17813,6 @@
       <c r="B1690">
         <v>2013</v>
       </c>
-      <c r="C1690" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1691" t="s">
@@ -19317,9 +17832,6 @@
       <c r="B1692">
         <v>2015</v>
       </c>
-      <c r="C1692" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1693" t="s">
@@ -19328,9 +17840,6 @@
       <c r="B1693">
         <v>2016</v>
       </c>
-      <c r="C1693" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1694" t="s">
@@ -19339,9 +17848,6 @@
       <c r="B1694">
         <v>2017</v>
       </c>
-      <c r="C1694" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1695" t="s">
@@ -19350,9 +17856,6 @@
       <c r="B1695">
         <v>1999</v>
       </c>
-      <c r="C1695" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1696" t="s">
@@ -19361,9 +17864,6 @@
       <c r="B1696">
         <v>2000</v>
       </c>
-      <c r="C1696" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1697" t="s">
@@ -19372,9 +17872,6 @@
       <c r="B1697">
         <v>2001</v>
       </c>
-      <c r="C1697" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1698" t="s">
@@ -19394,9 +17891,6 @@
       <c r="B1699">
         <v>2003</v>
       </c>
-      <c r="C1699" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1700" t="s">
@@ -19405,9 +17899,6 @@
       <c r="B1700">
         <v>2004</v>
       </c>
-      <c r="C1700" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1701" t="s">
@@ -19427,9 +17918,6 @@
       <c r="B1702">
         <v>2006</v>
       </c>
-      <c r="C1702" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1703" t="s">
@@ -19438,9 +17926,6 @@
       <c r="B1703">
         <v>2007</v>
       </c>
-      <c r="C1703" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1704" t="s">
@@ -19449,9 +17934,6 @@
       <c r="B1704">
         <v>2008</v>
       </c>
-      <c r="C1704" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1705" t="s">
@@ -19482,9 +17964,6 @@
       <c r="B1707">
         <v>2011</v>
       </c>
-      <c r="C1707" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1708" t="s">
@@ -19504,9 +17983,6 @@
       <c r="B1709">
         <v>2013</v>
       </c>
-      <c r="C1709" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1710" t="s">
@@ -19515,9 +17991,6 @@
       <c r="B1710">
         <v>2014</v>
       </c>
-      <c r="C1710" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1711" t="s">
@@ -19526,9 +17999,6 @@
       <c r="B1711">
         <v>2015</v>
       </c>
-      <c r="C1711" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1712" t="s">
@@ -19548,9 +18018,6 @@
       <c r="B1713">
         <v>2017</v>
       </c>
-      <c r="C1713" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1714" t="s">
@@ -19559,9 +18026,6 @@
       <c r="B1714">
         <v>1999</v>
       </c>
-      <c r="C1714" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1715" t="s">
@@ -19977,9 +18441,6 @@
       <c r="B1752">
         <v>1999</v>
       </c>
-      <c r="C1752" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1753" t="s">
@@ -20010,9 +18471,6 @@
       <c r="B1755">
         <v>2002</v>
       </c>
-      <c r="C1755" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1756" t="s">
@@ -20593,9 +19051,6 @@
       <c r="B1808">
         <v>1999</v>
       </c>
-      <c r="C1808" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1809" t="s">
@@ -20604,9 +19059,6 @@
       <c r="B1809">
         <v>2000</v>
       </c>
-      <c r="C1809" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1810" t="s">
@@ -20626,9 +19078,6 @@
       <c r="B1811">
         <v>2002</v>
       </c>
-      <c r="C1811" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1812" t="s">
@@ -20648,9 +19097,6 @@
       <c r="B1813">
         <v>2004</v>
       </c>
-      <c r="C1813" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1814" t="s">
@@ -20659,9 +19105,6 @@
       <c r="B1814">
         <v>2005</v>
       </c>
-      <c r="C1814" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1815" t="s">
@@ -20670,9 +19113,6 @@
       <c r="B1815">
         <v>2006</v>
       </c>
-      <c r="C1815" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1816" t="s">
@@ -20692,9 +19132,6 @@
       <c r="B1817">
         <v>2008</v>
       </c>
-      <c r="C1817" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1818" t="s">
@@ -20703,9 +19140,6 @@
       <c r="B1818">
         <v>2009</v>
       </c>
-      <c r="C1818" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1819" t="s">
@@ -20714,9 +19148,6 @@
       <c r="B1819">
         <v>2010</v>
       </c>
-      <c r="C1819" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1820" t="s">
@@ -20736,9 +19167,6 @@
       <c r="B1821">
         <v>2012</v>
       </c>
-      <c r="C1821" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1822" t="s">
@@ -20758,9 +19186,6 @@
       <c r="B1823">
         <v>2014</v>
       </c>
-      <c r="C1823" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1824" t="s">
@@ -20769,9 +19194,6 @@
       <c r="B1824">
         <v>2015</v>
       </c>
-      <c r="C1824" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1825" t="s">
@@ -20780,9 +19202,6 @@
       <c r="B1825">
         <v>2016</v>
       </c>
-      <c r="C1825" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1826" t="s">
@@ -20791,9 +19210,6 @@
       <c r="B1826">
         <v>2017</v>
       </c>
-      <c r="C1826" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1827" t="s">
@@ -20802,9 +19218,6 @@
       <c r="B1827">
         <v>1999</v>
       </c>
-      <c r="C1827" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1828" t="s">
@@ -20813,9 +19226,6 @@
       <c r="B1828">
         <v>2000</v>
       </c>
-      <c r="C1828" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1829" t="s">
@@ -20824,9 +19234,6 @@
       <c r="B1829">
         <v>2001</v>
       </c>
-      <c r="C1829" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1830" t="s">
@@ -20835,9 +19242,6 @@
       <c r="B1830">
         <v>2002</v>
       </c>
-      <c r="C1830" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1831" t="s">
@@ -20846,9 +19250,6 @@
       <c r="B1831">
         <v>2003</v>
       </c>
-      <c r="C1831" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1832" t="s">
@@ -20857,9 +19258,6 @@
       <c r="B1832">
         <v>2004</v>
       </c>
-      <c r="C1832" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1833" t="s">
@@ -20868,9 +19266,6 @@
       <c r="B1833">
         <v>2005</v>
       </c>
-      <c r="C1833" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1834" t="s">
@@ -20879,9 +19274,6 @@
       <c r="B1834">
         <v>2006</v>
       </c>
-      <c r="C1834" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1835" t="s">
@@ -20901,9 +19293,6 @@
       <c r="B1836">
         <v>2008</v>
       </c>
-      <c r="C1836" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1837" t="s">
@@ -20912,9 +19301,6 @@
       <c r="B1837">
         <v>2009</v>
       </c>
-      <c r="C1837" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1838" t="s">
@@ -20923,9 +19309,6 @@
       <c r="B1838">
         <v>2010</v>
       </c>
-      <c r="C1838" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1839" t="s">
@@ -20934,9 +19317,6 @@
       <c r="B1839">
         <v>2011</v>
       </c>
-      <c r="C1839" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1840" t="s">
@@ -20945,9 +19325,6 @@
       <c r="B1840">
         <v>2012</v>
       </c>
-      <c r="C1840" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1841" t="s">
@@ -20956,9 +19333,6 @@
       <c r="B1841">
         <v>2013</v>
       </c>
-      <c r="C1841" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1842" t="s">
@@ -20967,9 +19341,6 @@
       <c r="B1842">
         <v>2014</v>
       </c>
-      <c r="C1842" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1843" t="s">
@@ -20978,9 +19349,6 @@
       <c r="B1843">
         <v>2015</v>
       </c>
-      <c r="C1843" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1844" t="s">
@@ -21000,9 +19368,6 @@
       <c r="B1845">
         <v>2017</v>
       </c>
-      <c r="C1845" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1846" t="s">
@@ -21011,9 +19376,6 @@
       <c r="B1846">
         <v>1999</v>
       </c>
-      <c r="C1846" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1847" t="s">
@@ -21209,9 +19571,6 @@
       <c r="B1864">
         <v>2017</v>
       </c>
-      <c r="C1864" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1865" t="s">
@@ -21220,9 +19579,6 @@
       <c r="B1865">
         <v>1999</v>
       </c>
-      <c r="C1865" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1866" t="s">
@@ -21231,9 +19587,6 @@
       <c r="B1866">
         <v>2000</v>
       </c>
-      <c r="C1866" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1867" t="s">
@@ -21253,9 +19606,6 @@
       <c r="B1868">
         <v>2002</v>
       </c>
-      <c r="C1868" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1869" t="s">
@@ -21275,9 +19625,6 @@
       <c r="B1870">
         <v>2004</v>
       </c>
-      <c r="C1870" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1871" t="s">
@@ -21297,129 +19644,93 @@
       <c r="B1872">
         <v>2006</v>
       </c>
-      <c r="C1872" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1873" t="s">
         <v>101</v>
       </c>
       <c r="B1873">
         <v>2007</v>
       </c>
-      <c r="C1873" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1874" t="s">
         <v>101</v>
       </c>
       <c r="B1874">
         <v>2008</v>
       </c>
-      <c r="C1874" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1875" t="s">
         <v>101</v>
       </c>
       <c r="B1875">
         <v>2009</v>
       </c>
-      <c r="C1875" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1876" t="s">
         <v>101</v>
       </c>
       <c r="B1876">
         <v>2010</v>
       </c>
-      <c r="C1876" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1877" t="s">
         <v>101</v>
       </c>
       <c r="B1877">
         <v>2011</v>
       </c>
-      <c r="C1877" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1878" t="s">
         <v>101</v>
       </c>
       <c r="B1878">
         <v>2012</v>
       </c>
-      <c r="C1878" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1879" t="s">
         <v>101</v>
       </c>
       <c r="B1879">
         <v>2013</v>
       </c>
-      <c r="C1879" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1880" t="s">
         <v>101</v>
       </c>
       <c r="B1880">
         <v>2014</v>
       </c>
-      <c r="C1880" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1881" t="s">
         <v>101</v>
       </c>
       <c r="B1881">
         <v>2015</v>
       </c>
-      <c r="C1881" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1882" t="s">
         <v>101</v>
       </c>
       <c r="B1882">
         <v>2016</v>
       </c>
-      <c r="C1882" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1883" t="s">
         <v>101</v>
       </c>
       <c r="B1883">
         <v>2017</v>
-      </c>
-      <c r="C1883" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
